--- a/xlsx/Template talk-维基百科_intext.xlsx
+++ b/xlsx/Template talk-维基百科_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Template talk-维基百科专题</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Template talk-维基百科</t>
+    <t>政策_政策_维基百科_Template talk-维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/Wikipedia_talk:%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E5%B0%88%E9%A1%8C</t>
   </si>
   <si>
-    <t>Wikipedia talk-維基百科專題</t>
+    <t>Wikipedia talk-维基百科专题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%A6%AC%E5%AF%B6%E8%8E%89%EF%BC%9A%E5%8F%8B%E6%83%85%E5%B0%B1%E6%98%AF%E9%AD%94%E6%B3%95</t>
   </si>
   <si>
-    <t>小馬寶莉：友情就是魔法</t>
+    <t>小马宝莉：友情就是魔法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%A3%B3%E7%BD%91</t>
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
